--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Давид\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D8BE7-F798-433E-A926-E631AD24AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B424C72-2177-4CA5-863E-62D8BAA61EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="4890" yWindow="1260" windowWidth="30750" windowHeight="16710" activeTab="1" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>E</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>lsv</t>
+  </si>
+  <si>
+    <t>Призма</t>
   </si>
 </sst>
 </file>
@@ -139,13 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E1E3B-C320-441B-BA73-0005CB864963}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +673,7 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,12 +710,10 @@
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -746,6 +746,82 @@
         <v>2</v>
       </c>
       <c r="L2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Давид\PycharmProjects\Svai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B424C72-2177-4CA5-863E-62D8BAA61EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D8BE7-F798-433E-A926-E631AD24AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1260" windowWidth="30750" windowHeight="16710" activeTab="1" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>E</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>lsv</t>
-  </si>
-  <si>
-    <t>Призма</t>
   </si>
 </sst>
 </file>
@@ -142,12 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E1E3B-C320-441B-BA73-0005CB864963}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +671,7 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -710,10 +708,12 @@
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -746,82 +746,6 @@
         <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D8BE7-F798-433E-A926-E631AD24AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1B558-1C22-4588-B107-0F71AF384793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>E</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Nu</t>
   </si>
@@ -82,17 +79,44 @@
     <t>As_</t>
   </si>
   <si>
-    <t>B40</t>
-  </si>
-  <si>
     <t>lsv</t>
+  </si>
+  <si>
+    <t>Class_arm\</t>
+  </si>
+  <si>
+    <t>A500</t>
+  </si>
+  <si>
+    <t>В40</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Стабилизация</t>
+  </si>
+  <si>
+    <t>Zondir</t>
+  </si>
+  <si>
+    <t>As2</t>
+  </si>
+  <si>
+    <t>As2_</t>
+  </si>
+  <si>
+    <t>Площадь сечения напрягаемой арматуры сжатой</t>
+  </si>
+  <si>
+    <t>Площадь сечения напрягаемой арматуры сжатой растянутой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +138,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="204"/>
@@ -145,7 +176,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,33 +495,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -496,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -519,10 +552,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -542,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -565,10 +598,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -588,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -611,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -634,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -659,59 +692,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E1E3B-C320-441B-BA73-0005CB864963}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -725,32 +769,60 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
+        <v>400</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1B558-1C22-4588-B107-0F71AF384793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF829F6-0BF7-44A3-A4AD-51BEC09EB8E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Nu</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Площадь сечения напрягаемой арматуры сжатой растянутой</t>
+  </si>
+  <si>
+    <t>МПА</t>
+  </si>
+  <si>
+    <t>Н/мм2</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0.17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -552,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0.17</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -575,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0.17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -598,16 +604,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>50000</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0.17</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -621,16 +627,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50000</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -644,16 +650,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50000</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0.17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -667,22 +673,38 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>50000</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0.17</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -694,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E1E3B-C320-441B-BA73-0005CB864963}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF829F6-0BF7-44A3-A4AD-51BEC09EB8E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389A1B2-6F9E-455E-9A16-331CD721FCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +155,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -172,11 +186,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,6 +279,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +813,867 @@
       </c>
       <c r="E13" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2</v>
+      </c>
+      <c r="S19" s="5">
+        <v>3</v>
+      </c>
+      <c r="T19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3</v>
+      </c>
+      <c r="T20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>3</v>
+      </c>
+      <c r="T21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="11">
+        <v>2</v>
+      </c>
+      <c r="S22" s="11">
+        <v>3</v>
+      </c>
+      <c r="T22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>2</v>
+      </c>
+      <c r="O40" s="5">
+        <v>3</v>
+      </c>
+      <c r="P40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="8">
+        <v>2</v>
+      </c>
+      <c r="O41" s="8">
+        <v>3</v>
+      </c>
+      <c r="P41" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="8">
+        <v>2</v>
+      </c>
+      <c r="O42" s="15">
+        <f>C43+E45</f>
+        <v>4</v>
+      </c>
+      <c r="P42" s="16">
+        <f>D43+F45</f>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>G45</f>
+        <v>3</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" ref="R42:R43" si="0">H45</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11">
+        <v>2</v>
+      </c>
+      <c r="O43" s="17">
+        <f>C44+E46</f>
+        <v>4</v>
+      </c>
+      <c r="P43" s="14">
+        <f>D44+F46</f>
+        <v>6</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" ref="Q42:Q43" si="1">G46</f>
+        <v>3</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" s="12">
+        <v>4</v>
+      </c>
+      <c r="O44" s="7">
+        <f>E47</f>
+        <v>1</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" ref="P44:R44" si="2">F47</f>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="8">
+        <f>G47+I49</f>
+        <v>4</v>
+      </c>
+      <c r="R44" s="9">
+        <f>H47+J49</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>4</v>
+      </c>
+      <c r="O45" s="10">
+        <f>E48</f>
+        <v>1</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" ref="P45:R45" si="3">F48</f>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="11">
+        <f>G48+K52</f>
+        <v>6</v>
+      </c>
+      <c r="R45" s="12">
+        <f>H48+L52</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3</v>
+      </c>
+      <c r="H46" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3</v>
+      </c>
+      <c r="H47" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3</v>
+      </c>
+      <c r="H48" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2</v>
+      </c>
+      <c r="K49" s="5">
+        <v>3</v>
+      </c>
+      <c r="L49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>2</v>
+      </c>
+      <c r="K50" s="8">
+        <v>3</v>
+      </c>
+      <c r="L50" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>3</v>
+      </c>
+      <c r="L51" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11">
+        <v>2</v>
+      </c>
+      <c r="K52" s="11">
+        <v>3</v>
+      </c>
+      <c r="L52" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Давид\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389A1B2-6F9E-455E-9A16-331CD721FCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EFD17-34EC-461F-9E76-0D88BDA33DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="30720" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +174,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,16 +301,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -609,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:T22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,13 +863,13 @@
       <c r="Q20" s="7">
         <v>1</v>
       </c>
-      <c r="R20" s="8">
-        <v>2</v>
-      </c>
-      <c r="S20" s="8">
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
         <v>3</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>4</v>
       </c>
     </row>
@@ -848,32 +877,32 @@
       <c r="Q21" s="7">
         <v>1</v>
       </c>
-      <c r="R21" s="8">
-        <v>2</v>
-      </c>
-      <c r="S21" s="8">
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="10">
-        <v>1</v>
-      </c>
-      <c r="R22" s="11">
-        <v>2</v>
-      </c>
-      <c r="S22" s="11">
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>2</v>
+      </c>
+      <c r="S22" s="10">
         <v>3</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
       <c r="B24">
@@ -1421,203 +1450,203 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="A41" s="14">
+        <v>1</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2</v>
+      </c>
+      <c r="C41" s="21">
+        <v>7</v>
+      </c>
+      <c r="D41" s="22">
+        <v>8</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
         <v>3</v>
       </c>
-      <c r="D41" s="6">
+      <c r="P41" s="8">
         <v>4</v>
       </c>
-      <c r="M41" s="7">
-        <v>1</v>
-      </c>
-      <c r="N41" s="8">
-        <v>2</v>
-      </c>
-      <c r="O41" s="8">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>2</v>
+      </c>
+      <c r="B42" s="13">
         <v>3</v>
       </c>
-      <c r="P41" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>1</v>
-      </c>
-      <c r="B42" s="8">
-        <v>2</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="9">
-        <v>4</v>
+      <c r="C42" s="23">
+        <v>9</v>
+      </c>
+      <c r="D42" s="24">
+        <v>10</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
-      <c r="N42" s="8">
-        <v>2</v>
-      </c>
-      <c r="O42" s="15">
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" s="14">
         <f>C43+E45</f>
-        <v>4</v>
-      </c>
-      <c r="P42" s="16">
+        <v>5</v>
+      </c>
+      <c r="P42" s="15">
         <f>D43+F45</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q42" s="5">
         <f>G45</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" ref="R42:R43" si="0">H45</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>7</v>
+      </c>
+      <c r="B43" s="26">
+        <v>9</v>
+      </c>
+      <c r="C43" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>1</v>
-      </c>
-      <c r="B43" s="8">
-        <v>2</v>
-      </c>
-      <c r="C43" s="8">
-        <v>3</v>
-      </c>
-      <c r="D43" s="9">
-        <v>4</v>
-      </c>
-      <c r="M43" s="10">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11">
-        <v>2</v>
-      </c>
-      <c r="O43" s="17">
+      <c r="D43" s="18">
+        <v>5</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>2</v>
+      </c>
+      <c r="O43" s="16">
         <f>C44+E46</f>
-        <v>4</v>
-      </c>
-      <c r="P43" s="14">
+        <v>7</v>
+      </c>
+      <c r="P43" s="13">
         <f>D44+F46</f>
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43" si="1">G46</f>
+        <v>9</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27">
+        <v>8</v>
+      </c>
+      <c r="B44" s="28">
+        <v>10</v>
+      </c>
+      <c r="C44" s="19">
+        <v>5</v>
+      </c>
+      <c r="D44" s="20">
         <v>6</v>
-      </c>
-      <c r="Q43" s="8">
-        <f t="shared" ref="Q42:Q43" si="1">G46</f>
-        <v>3</v>
-      </c>
-      <c r="R43" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11">
-        <v>2</v>
-      </c>
-      <c r="C44" s="11">
-        <v>3</v>
-      </c>
-      <c r="D44" s="12">
-        <v>4</v>
       </c>
       <c r="O44" s="7">
         <f>E47</f>
-        <v>1</v>
-      </c>
-      <c r="P44" s="8">
-        <f t="shared" ref="P44:R44" si="2">F47</f>
-        <v>2</v>
-      </c>
-      <c r="Q44" s="8">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ref="P44" si="2">F47</f>
+        <v>9</v>
+      </c>
+      <c r="Q44">
         <f>G47+I49</f>
+        <v>5</v>
+      </c>
+      <c r="R44" s="8">
+        <f>H47+J49</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2</v>
+      </c>
+      <c r="G45" s="21">
+        <v>7</v>
+      </c>
+      <c r="H45" s="22">
+        <v>8</v>
+      </c>
+      <c r="O45" s="9">
+        <f>E48</f>
+        <v>8</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" ref="P45" si="3">F48</f>
+        <v>10</v>
+      </c>
+      <c r="Q45" s="10">
+        <f>G48+K52</f>
+        <v>8</v>
+      </c>
+      <c r="R45" s="11">
+        <f>H48+L52</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E46" s="16">
+        <v>2</v>
+      </c>
+      <c r="F46" s="13">
+        <v>3</v>
+      </c>
+      <c r="G46" s="23">
+        <v>9</v>
+      </c>
+      <c r="H46" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" s="25">
+        <v>7</v>
+      </c>
+      <c r="F47" s="26">
+        <v>9</v>
+      </c>
+      <c r="G47" s="17">
         <v>4</v>
       </c>
-      <c r="R44" s="9">
-        <f>H47+J49</f>
+      <c r="H47" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="27">
+        <v>8</v>
+      </c>
+      <c r="F48" s="28">
+        <v>10</v>
+      </c>
+      <c r="G48" s="19">
+        <v>5</v>
+      </c>
+      <c r="H48" s="20">
         <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2</v>
-      </c>
-      <c r="G45" s="5">
-        <v>3</v>
-      </c>
-      <c r="H45" s="6">
-        <v>4</v>
-      </c>
-      <c r="O45" s="10">
-        <f>E48</f>
-        <v>1</v>
-      </c>
-      <c r="P45" s="11">
-        <f t="shared" ref="P45:R45" si="3">F48</f>
-        <v>2</v>
-      </c>
-      <c r="Q45" s="11">
-        <f>G48+K52</f>
-        <v>6</v>
-      </c>
-      <c r="R45" s="12">
-        <f>H48+L52</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2</v>
-      </c>
-      <c r="G46" s="8">
-        <v>3</v>
-      </c>
-      <c r="H46" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2</v>
-      </c>
-      <c r="G47" s="8">
-        <v>3</v>
-      </c>
-      <c r="H47" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="10">
-        <v>1</v>
-      </c>
-      <c r="F48" s="11">
-        <v>2</v>
-      </c>
-      <c r="G48" s="11">
-        <v>3</v>
-      </c>
-      <c r="H48" s="12">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.25">
@@ -1638,13 +1667,13 @@
       <c r="I50" s="7">
         <v>1</v>
       </c>
-      <c r="J50" s="8">
-        <v>2</v>
-      </c>
-      <c r="K50" s="8">
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1652,27 +1681,27 @@
       <c r="I51" s="7">
         <v>1</v>
       </c>
-      <c r="J51" s="8">
-        <v>2</v>
-      </c>
-      <c r="K51" s="8">
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
         <v>3</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="10">
-        <v>1</v>
-      </c>
-      <c r="J52" s="11">
-        <v>2</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2</v>
+      </c>
+      <c r="K52" s="10">
         <v>3</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <v>4</v>
       </c>
     </row>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Давид\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EFD17-34EC-461F-9E76-0D88BDA33DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD44DB7-594E-4C2D-924D-382C1405927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB688FE1-B8D7-4B15-AD91-7564DC299AA7}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1392,8 +1392,17 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1433,9 +1442,29 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M40" s="4">
         <v>1</v>
       </c>
@@ -1449,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>1</v>
       </c>
@@ -1475,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>2</v>
       </c>
@@ -1511,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>7</v>
       </c>
@@ -1547,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>8</v>
       </c>
@@ -1577,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="14">
         <v>1</v>
       </c>
@@ -1607,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="16">
         <v>2</v>
       </c>
@@ -1621,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="25">
         <v>7</v>
       </c>
@@ -1635,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="27">
         <v>8</v>
       </c>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46476CCE-5A72-4DD9-A6A2-4E62C71B354F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D5B7D-EDBA-4A67-AD83-393AC15BD626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Nu</t>
   </si>
@@ -80,9 +80,6 @@
     <t>As_</t>
   </si>
   <si>
-    <t>lsv</t>
-  </si>
-  <si>
     <t>Class_arm\</t>
   </si>
   <si>
@@ -120,6 +117,15 @@
   </si>
   <si>
     <t>КН</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>lsloy</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,6 +332,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -643,7 +652,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -668,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,16 +688,16 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D2">
         <v>3.5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -702,16 +711,16 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
         <v>3.5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -725,16 +734,16 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D4">
         <v>3.5</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -748,16 +757,16 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
         <v>3.5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -771,16 +780,16 @@
         <v>45</v>
       </c>
       <c r="C6">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
         <v>3.5</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -794,16 +803,16 @@
         <v>54</v>
       </c>
       <c r="C7">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D7">
         <v>3.5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -817,35 +826,47 @@
         <v>44</v>
       </c>
       <c r="C8">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D8">
         <v>3.5</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>SUM(G2:G8)</f>
+        <v>17</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1774,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1816,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
@@ -1804,13 +1825,13 @@
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1821,10 +1842,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
@@ -1842,10 +1863,10 @@
         <v>400</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
@@ -1860,34 +1881,37 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Расчет свай.xlsx
+++ b/Расчет свай.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Svai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D5B7D-EDBA-4A67-AD83-393AC15BD626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37684B74-A127-41A8-8883-5FC8536131C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DDE15CB0-6707-44FD-80F9-68B8DAEF0C19}"/>
   </bookViews>
   <sheets>
     <sheet name="grunt" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>As_</t>
   </si>
   <si>
-    <t>Class_arm\</t>
-  </si>
-  <si>
     <t>A500</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>lsloy</t>
+  </si>
+  <si>
+    <t>Class_arm</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.35</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.35</v>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0.35</v>
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0.35</v>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0.35</v>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.35</v>
@@ -849,24 +849,24 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1774,14 +1774,16 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1816,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
@@ -1825,13 +1827,13 @@
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1839,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1848,25 +1850,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
+        <v>400</v>
+      </c>
+      <c r="G2" s="1">
+        <v>400</v>
+      </c>
+      <c r="H2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>200</v>
       </c>
-      <c r="H2" s="1">
-        <v>400</v>
-      </c>
-      <c r="I2" s="1">
-        <v>400</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
@@ -1881,37 +1883,53 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
